--- a/Clustering/Output_Clusters_Asigned_To_Countries/kmedoids_10_af_df_wind.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/kmedoids_10_af_df_wind.xlsx
@@ -469,16 +469,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.006294586655476291</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.01358695652173913</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01081081081081081</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -487,13 +487,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02367688022284123</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01</v>
+        <v>0.01380175658720201</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.02171471359041559</v>
       </c>
     </row>
     <row r="3">
@@ -503,31 +503,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09232060428031916</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.001872659176029963</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03513513513513514</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03161397670549083</v>
+        <v>0.1483488132094948</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02367688022284123</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01</v>
+        <v>0.02383939774153074</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.03594159490827404</v>
       </c>
     </row>
     <row r="4">
@@ -537,31 +537,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01007133864876207</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008233058898036731</v>
+        <v>0.03121098626716608</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.01358695652173913</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01081081081081081</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03050471436494729</v>
+        <v>0.005159958720330238</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01392757660167131</v>
+        <v>0.0066711140760507</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02</v>
+        <v>0.007528230865746549</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.005990265818045677</v>
       </c>
     </row>
     <row r="5">
@@ -571,31 +571,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009232060428031895</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.358695652173914</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4513513513513493</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6666666666666669</v>
+        <v>0.3918918918918917</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.001031991744066047</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1935933147632318</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4300000000000002</v>
+        <v>0.2383939774153082</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.01010857356795208</v>
       </c>
     </row>
     <row r="6">
@@ -605,31 +605,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01678556441460344</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.01358695652173913</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01351351351351351</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001663893510815308</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03064066852367688</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.0150564617314931</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.01647323099962562</v>
       </c>
     </row>
     <row r="7">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04306523115896142</v>
+        <v>0.02933832709113611</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01053799223516362</v>
+        <v>0.003611971104231167</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.04536357571714479</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.0007487832272557095</v>
       </c>
     </row>
     <row r="8">
@@ -673,31 +673,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05665127989928648</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1551614946168454</v>
+        <v>0.1186017478152312</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.06793478260869562</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05405405405405406</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1098169717138102</v>
+        <v>0.03070175438596482</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05988857938718663</v>
+        <v>0.1467645096731154</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04</v>
+        <v>0.06273525721455465</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0378135529764133</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08866371120962621</v>
+        <v>0.07303370786516868</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -722,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03105934553521906</v>
+        <v>0.007739938080495358</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.09673115410273539</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.001254705144291092</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.002620741295394983</v>
       </c>
     </row>
     <row r="10">
@@ -741,31 +741,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002517834662190516</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07473084230525648</v>
+        <v>0.01373283395755306</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002702702702702703</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01053799223516362</v>
+        <v>0.001289989680082559</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005571030640668524</v>
+        <v>0.07671781187458321</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.005018820577164366</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.001871958068139274</v>
       </c>
     </row>
     <row r="11">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01456618112729575</v>
+        <v>0.003121098626716604</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001663893510815308</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.01400933955970646</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001258917331095258</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02913236225459154</v>
+        <v>0.01435705368289638</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009983361064891848</v>
+        <v>0.0005159958720330237</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.02735156771180785</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.0003743916136278548</v>
       </c>
     </row>
     <row r="13">
@@ -843,31 +843,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004616030214015946</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03899721448467967</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09</v>
+        <v>0.03136762860727729</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.006364657431673532</v>
       </c>
     </row>
     <row r="14">
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.02445652173913043</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04054054054054054</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09888579387186647</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02</v>
+        <v>0.09535759096612294</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.001123174840883564</v>
       </c>
     </row>
     <row r="15">
@@ -945,31 +945,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1242131766680661</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04813172894236865</v>
+        <v>0.1004993757802749</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.07608695652173909</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08108108108108109</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1164725457570715</v>
+        <v>0.04643962848297194</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1573816155988862</v>
+        <v>0.04936624416277523</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09</v>
+        <v>0.08531994981179424</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.08199176338450015</v>
       </c>
     </row>
     <row r="17">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03818715904322276</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002702702702702703</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.01160990712074304</v>
       </c>
       <c r="H17" t="n">
-        <v>0.004178272980501393</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.003764115432873275</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.01946836390864846</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01076630778974034</v>
+        <v>0.0006242197253433209</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0005546311702717693</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.01134089392928619</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.09510869565217386</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1108108108108108</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0181058495821727</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.15</v>
+        <v>0.03387703889585948</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1081,31 +1081,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1640788921527485</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00253324889170361</v>
+        <v>0.01061173533083645</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.01358695652173913</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02162162162162162</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01386577925679423</v>
+        <v>0.0327657378740969</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04596100278551532</v>
+        <v>0.00200133422281521</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.02634880803011292</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.1078247847248224</v>
       </c>
     </row>
     <row r="21">
@@ -1115,31 +1115,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1128829206882086</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02026599113362889</v>
+        <v>0.08177278401997519</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.03532608695652173</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03243243243243243</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0837493067110371</v>
+        <v>0.04385964912280684</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05710306406685237</v>
+        <v>0.01667778519012674</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03262233375156838</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.05428678397603877</v>
       </c>
     </row>
     <row r="22">
@@ -1183,31 +1183,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1808644565673516</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01899936668777708</v>
+        <v>0.0961298377028716</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.02989130434782608</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04324324324324325</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1835829173599555</v>
+        <v>0.124355005159958</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07381615598885799</v>
+        <v>0.0153435623749166</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01</v>
+        <v>0.05520702634880809</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.05540995881692232</v>
       </c>
     </row>
     <row r="24">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01899936668777708</v>
+        <v>0.002496878901373283</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002218524681087077</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.02001334222815209</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01007133864876207</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003166561114629513</v>
+        <v>0.05305867665418236</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05324459234608982</v>
+        <v>0.007481940144478846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.00266844563042028</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.002620741295394983</v>
       </c>
     </row>
     <row r="26">
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006333122229259025</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.00066711140760507</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03419886003799877</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.03602401601067377</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01552664708350819</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0006333122229259025</v>
+        <v>0.03682896379525598</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04159733777038267</v>
+        <v>0.0128998968008256</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.001497566454511419</v>
       </c>
     </row>
     <row r="29">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004616030214015946</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01963267891070298</v>
+        <v>0.01435705368289638</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1402,16 +1402,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01220188574597892</v>
+        <v>0.001805985552115583</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.02001334222815209</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.001497566454511419</v>
       </c>
     </row>
     <row r="30">
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.004616030214015946</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04623179227359094</v>
+        <v>0.009987515605493132</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1436,16 +1436,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01275651691625069</v>
+        <v>0.002837977296181631</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001392757660167131</v>
+        <v>0.04869913275517015</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.002995132909022838</v>
       </c>
     </row>
     <row r="31">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.000839278220730172</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04369854338188733</v>
+        <v>0.02372034956304621</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0232945091514143</v>
+        <v>0.002837977296181631</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.0426951300867245</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1489,31 +1489,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06084767100293732</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07726409119696007</v>
+        <v>0.1598002496878905</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01621621621621622</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1597337770382694</v>
+        <v>0.03663570691434456</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04317548746518106</v>
+        <v>0.0720480320213477</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03</v>
+        <v>0.02509410288582183</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.02283788843129915</v>
       </c>
     </row>
     <row r="33">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01174989509022241</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1703609879670669</v>
+        <v>0.05305867665418236</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1538,16 +1538,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04437049362174152</v>
+        <v>0.008255933952528381</v>
       </c>
       <c r="H33" t="n">
-        <v>0.009749303621169917</v>
+        <v>0.1667778519012671</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.003764115432873275</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.005241482590789967</v>
       </c>
     </row>
     <row r="34">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.003357112882920688</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.002717391304347826</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002702702702702703</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04735376044568245</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.0150564617314931</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.01123174840883565</v>
       </c>
     </row>
     <row r="35">
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0386320455984801</v>
+        <v>0.0006242197253433209</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0005546311702717693</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.04069379586390928</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
